--- a/Documentacion/Entidades.xlsx
+++ b/Documentacion/Entidades.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19320" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -237,8 +237,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,83 +249,73 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color indexed="30"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color indexed="36"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
+      <color indexed="60"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <color indexed="60"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color indexed="60"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="36"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -337,7 +327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,14 +342,14 @@
     </border>
     <border>
       <left style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -367,23 +357,23 @@
       <left/>
       <right/>
       <top style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -418,16 +408,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF777777"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -506,7 +486,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -541,7 +520,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,14 +695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
@@ -735,7 +713,7 @@
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:14" ht="46.5">
       <c r="A2" s="17" t="s">
         <v>70</v>
       </c>
@@ -753,7 +731,7 @@
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="24" thickBot="1">
       <c r="B4" s="14">
         <v>3</v>
       </c>
@@ -761,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
@@ -778,7 +756,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" thickTop="1">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -813,7 +791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -842,7 +820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -871,7 +849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
@@ -891,7 +869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
@@ -911,7 +889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="24" thickBot="1">
       <c r="B13" s="14">
         <v>1</v>
       </c>
@@ -919,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
@@ -938,7 +916,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" thickTop="1">
       <c r="B15" s="10" t="s">
         <v>34</v>
       </c>
@@ -973,7 +951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
         <v>36</v>
       </c>
@@ -996,7 +974,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="B17" t="s">
         <v>36</v>
       </c>
@@ -1019,7 +997,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1039,7 +1017,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -1050,10 +1028,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="B22" s="7" t="s">
         <v>57</v>
       </c>
@@ -1067,7 +1045,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" thickTop="1">
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1088,7 +1066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
@@ -1108,7 +1086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
@@ -1128,7 +1106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
@@ -1148,7 +1126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
@@ -1168,10 +1146,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="B28" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1187,7 +1165,7 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15.75" thickBot="1">
       <c r="B31">
         <v>5</v>
       </c>
@@ -1195,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="B32" s="7" t="s">
         <v>43</v>
       </c>
@@ -1209,7 +1187,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="15.75" thickTop="1">
       <c r="B33" s="10" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10">
       <c r="B34" t="s">
         <v>45</v>
       </c>
@@ -1253,7 +1231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>45</v>
       </c>
@@ -1277,31 +1255,34 @@
   <mergeCells count="1">
     <mergeCell ref="A2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>